--- a/Assignment 4.2/TIMS_DCPBikeCounts_ON_Street_2014.xlsx
+++ b/Assignment 4.2/TIMS_DCPBikeCounts_ON_Street_2014.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="54">
   <si>
     <t>SeasonYear</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Sixth Avenue at W23 St.</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -707,6 +710,9 @@
       </c>
       <c r="AK1" s="5" t="s">
         <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="37">
@@ -2613,39 +2619,39 @@
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10">
-        <f>SUM(AC20:AC27)</f>
+        <f t="shared" ref="AC28:AK28" si="0">SUM(AC20:AC27)</f>
         <v>5</v>
       </c>
       <c r="AD28" s="9">
-        <f>SUM(AD20:AD27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE28" s="10">
-        <f>SUM(AE20:AE27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AF28" s="9">
-        <f>SUM(AF20:AF27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG28" s="10">
-        <f>SUM(AG20:AG27)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="AH28" s="10">
-        <f>SUM(AH20:AH27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI28" s="9">
-        <f>SUM(AI20:AI27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ28" s="9">
-        <f>SUM(AJ20:AJ27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AK28" s="9">
-        <f>SUM(AK20:AK27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL28" s="1">
@@ -5950,27 +5956,27 @@
       </c>
       <c r="X73" s="10"/>
       <c r="Y73" s="10">
-        <f>SUM(Y65:Y72)</f>
+        <f t="shared" ref="Y73:AD73" si="1">SUM(Y65:Y72)</f>
         <v>20</v>
       </c>
       <c r="Z73" s="10">
-        <f>SUM(Z65:Z72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AA73" s="10">
-        <f>SUM(AA65:AA72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AB73" s="10">
-        <f>SUM(AB65:AB72)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AC73" s="10">
-        <f>SUM(AC65:AC72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD73" s="10">
-        <f>SUM(AD65:AD72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AE73" s="10"/>
@@ -6665,43 +6671,43 @@
       <c r="Q82" s="10"/>
       <c r="R82" s="10"/>
       <c r="S82" s="9">
-        <f>SUM(S74:S81)</f>
+        <f t="shared" ref="S82:AB82" si="2">SUM(S74:S81)</f>
         <v>110</v>
       </c>
       <c r="T82" s="10">
-        <f>SUM(T74:T81)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="U82" s="9">
-        <f>SUM(U74:U81)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="V82" s="9">
-        <f>SUM(V74:V81)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="W82" s="10">
-        <f>SUM(W74:W81)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="X82" s="9">
-        <f>SUM(X74:X81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y82" s="9">
-        <f>SUM(Y74:Y81)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="Z82" s="10">
-        <f>SUM(Z74:Z81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AA82" s="10">
-        <f>SUM(AA74:AA81)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AB82" s="9">
-        <f>SUM(AB74:AB81)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AC82" s="10"/>
